--- a/comunidadetotal.xlsx
+++ b/comunidadetotal.xlsx
@@ -13,9 +13,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Regiao</t>
+  </si>
+  <si>
+    <t>CHIMANIMANI</t>
   </si>
   <si>
     <t>GORONGOSA</t>
@@ -80,7 +83,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -88,22 +91,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
@@ -111,21 +114,44 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0">
+        <v>148</v>
+      </c>
+      <c r="D2" s="0">
+        <v>119</v>
+      </c>
+      <c r="E2" s="0">
+        <v>110</v>
+      </c>
+      <c r="F2" s="0">
+        <v>66</v>
+      </c>
+      <c r="G2" s="0">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0">
         <v>3</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C3" s="0">
         <v>94</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D3" s="0">
         <v>84</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E3" s="0">
         <v>32</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F3" s="0">
         <v>19</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G3" s="0">
         <v>229</v>
       </c>
     </row>
